--- a/etf_names.xlsx
+++ b/etf_names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="REIT" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="World Equities" sheetId="14" r:id="rId14"/>
     <sheet name="Fixed Income" sheetId="15" r:id="rId15"/>
     <sheet name="Currencies" sheetId="16" r:id="rId16"/>
+    <sheet name="Commodities" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="485">
   <si>
     <t>BBRE</t>
   </si>
@@ -1376,6 +1377,114 @@
   </si>
   <si>
     <t>World Equities</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Brent Oil</t>
+  </si>
+  <si>
+    <t>Crude Oil WTI</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>LEAD</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>MZNc1</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>London Coffee</t>
+  </si>
+  <si>
+    <t>US Cocoa</t>
+  </si>
+  <si>
+    <t>Lean Hogs</t>
+  </si>
+  <si>
+    <t>US Sugar #11</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>MALTRc1</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>RC</t>
   </si>
 </sst>
 </file>
@@ -2451,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,6 +3587,224 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" t="s">
+        <v>478</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
@@ -4539,7 +4866,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B71"/>
+      <selection activeCell="B16" sqref="A1:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/etf_names.xlsx
+++ b/etf_names.xlsx
@@ -4,33 +4,44 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="REIT" sheetId="1" r:id="rId1"/>
     <sheet name="World" sheetId="2" r:id="rId2"/>
-    <sheet name="EM" sheetId="3" r:id="rId3"/>
-    <sheet name="Asia" sheetId="4" r:id="rId4"/>
-    <sheet name="Commodity" sheetId="5" r:id="rId5"/>
-    <sheet name="G10" sheetId="6" r:id="rId6"/>
-    <sheet name="Europe" sheetId="7" r:id="rId7"/>
-    <sheet name="Sectoral" sheetId="8" r:id="rId8"/>
-    <sheet name="China" sheetId="9" r:id="rId9"/>
-    <sheet name="Australia" sheetId="10" r:id="rId10"/>
-    <sheet name="Euro" sheetId="11" r:id="rId11"/>
-    <sheet name="Canada" sheetId="12" r:id="rId12"/>
-    <sheet name="US" sheetId="13" r:id="rId13"/>
-    <sheet name="World Equities" sheetId="14" r:id="rId14"/>
-    <sheet name="Fixed Income" sheetId="15" r:id="rId15"/>
-    <sheet name="Currencies" sheetId="16" r:id="rId16"/>
-    <sheet name="Commodities" sheetId="17" r:id="rId17"/>
+    <sheet name="All Countries" sheetId="18" r:id="rId3"/>
+    <sheet name="Emerging Markets" sheetId="3" r:id="rId4"/>
+    <sheet name="Asia" sheetId="4" r:id="rId5"/>
+    <sheet name="Commodity Linked" sheetId="5" r:id="rId6"/>
+    <sheet name="G10" sheetId="6" r:id="rId7"/>
+    <sheet name="Europe" sheetId="7" r:id="rId8"/>
+    <sheet name="Sectoral" sheetId="8" r:id="rId9"/>
+    <sheet name="China" sheetId="9" r:id="rId10"/>
+    <sheet name="Australia" sheetId="10" r:id="rId11"/>
+    <sheet name="Eurozone" sheetId="11" r:id="rId12"/>
+    <sheet name="Canada" sheetId="12" r:id="rId13"/>
+    <sheet name="United States" sheetId="13" r:id="rId14"/>
+    <sheet name="World Equities" sheetId="14" r:id="rId15"/>
+    <sheet name="Indian Equities" sheetId="24" r:id="rId16"/>
+    <sheet name="All Indian Indices" sheetId="28" r:id="rId17"/>
+    <sheet name="Indian Sectoral" sheetId="26" r:id="rId18"/>
+    <sheet name="Indian Strategy Indices" sheetId="27" r:id="rId19"/>
+    <sheet name="Fixed Income" sheetId="15" r:id="rId20"/>
+    <sheet name="Currencies" sheetId="16" r:id="rId21"/>
+    <sheet name="Commodities" sheetId="17" r:id="rId22"/>
+    <sheet name="Sovereign Fixed Income" sheetId="19" r:id="rId23"/>
+    <sheet name="Corporate Credit" sheetId="20" r:id="rId24"/>
+    <sheet name="High Yield" sheetId="21" r:id="rId25"/>
+    <sheet name="Municipals" sheetId="22" r:id="rId26"/>
+    <sheet name="All Fixed Income" sheetId="23" r:id="rId27"/>
+    <sheet name="India Fixed Income" sheetId="25" r:id="rId28"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="540">
   <si>
     <t>BBRE</t>
   </si>
@@ -1485,6 +1496,171 @@
   </si>
   <si>
     <t>RC</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>NIFTY Midcap 100</t>
+  </si>
+  <si>
+    <t>NIFTY Smallcap 100</t>
+  </si>
+  <si>
+    <t>Nifty 100</t>
+  </si>
+  <si>
+    <t>Nifty 200</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>Nifty 50 USD</t>
+  </si>
+  <si>
+    <t>Nifty 50 Value 20</t>
+  </si>
+  <si>
+    <t>Nifty 500</t>
+  </si>
+  <si>
+    <t>Nifty Midcap 50</t>
+  </si>
+  <si>
+    <t>Nifty Next 50</t>
+  </si>
+  <si>
+    <t>Nifty Smallcap 250</t>
+  </si>
+  <si>
+    <t>NIFTY Total Returns</t>
+  </si>
+  <si>
+    <t>Nifty 10 Year Benchmark G Sec Clean Price</t>
+  </si>
+  <si>
+    <t>Nifty 100 Equal Weight</t>
+  </si>
+  <si>
+    <t>Nifty 100 Liquid 15</t>
+  </si>
+  <si>
+    <t>Nifty 50 Shariah</t>
+  </si>
+  <si>
+    <t>Nifty 500 Shariah</t>
+  </si>
+  <si>
+    <t>Nifty 500 Shariah TRI</t>
+  </si>
+  <si>
+    <t>Nifty 500 TRI</t>
+  </si>
+  <si>
+    <t>Nifty Alpha 50</t>
+  </si>
+  <si>
+    <t>Nifty Auto</t>
+  </si>
+  <si>
+    <t>Nifty Bank</t>
+  </si>
+  <si>
+    <t>Nifty CPSE</t>
+  </si>
+  <si>
+    <t>Nifty Commodities</t>
+  </si>
+  <si>
+    <t>Nifty Dividend Opportunities 50</t>
+  </si>
+  <si>
+    <t>Nifty Energy</t>
+  </si>
+  <si>
+    <t>Nifty FMCG</t>
+  </si>
+  <si>
+    <t>Nifty Financial Services</t>
+  </si>
+  <si>
+    <t>Nifty GS 10Yr</t>
+  </si>
+  <si>
+    <t>Nifty GS 11 15Yr</t>
+  </si>
+  <si>
+    <t>Nifty GS 15YrPlus</t>
+  </si>
+  <si>
+    <t>Nifty GS 4 8Yr</t>
+  </si>
+  <si>
+    <t>Nifty GS 8 13Yr</t>
+  </si>
+  <si>
+    <t>Nifty GS Compsite</t>
+  </si>
+  <si>
+    <t>Nifty Growth Sectors 15</t>
+  </si>
+  <si>
+    <t>Nifty High Beta 50</t>
+  </si>
+  <si>
+    <t>Nifty IT</t>
+  </si>
+  <si>
+    <t>Nifty India Consumption</t>
+  </si>
+  <si>
+    <t>Nifty Infrastructure</t>
+  </si>
+  <si>
+    <t>Nifty Low Volatility 50</t>
+  </si>
+  <si>
+    <t>Nifty MNC</t>
+  </si>
+  <si>
+    <t>Nifty Media</t>
+  </si>
+  <si>
+    <t>Nifty Metal</t>
+  </si>
+  <si>
+    <t>Nifty Midcap Liquid 15</t>
+  </si>
+  <si>
+    <t>Nifty PSE</t>
+  </si>
+  <si>
+    <t>Nifty PSU Bank</t>
+  </si>
+  <si>
+    <t>Nifty Pharma</t>
+  </si>
+  <si>
+    <t>Nifty Private Bank</t>
+  </si>
+  <si>
+    <t>Nifty Realty</t>
+  </si>
+  <si>
+    <t>Nifty Services Sector</t>
+  </si>
+  <si>
+    <t>Nifty Total Return USD Equity</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Equities</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +2004,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,6 +2385,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -2254,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -2322,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -2383,7 +2630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
@@ -2556,12 +2803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,12 +3237,1295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,7 +4890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -3587,11 +5117,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3805,588 +5335,626 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" t="s">
-        <v>41</v>
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -4395,6 +5963,284 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
@@ -4507,7 +6353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
@@ -4593,7 +6439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -4654,7 +6500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -4745,9 +6591,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4851,22 +6697,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>140</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:C71"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5659,75 +7500,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/etf_names.xlsx
+++ b/etf_names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="REIT" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,15 @@
     <sheet name="Municipals" sheetId="22" r:id="rId26"/>
     <sheet name="All Fixed Income" sheetId="23" r:id="rId27"/>
     <sheet name="India Fixed Income" sheetId="25" r:id="rId28"/>
+    <sheet name="Commodity Futures" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet1" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="623">
   <si>
     <t>BBRE</t>
   </si>
@@ -1661,6 +1663,255 @@
   </si>
   <si>
     <t>Indian Equities</t>
+  </si>
+  <si>
+    <t>Commodity Futures</t>
+  </si>
+  <si>
+    <t>GC=F</t>
+  </si>
+  <si>
+    <t>SI=F</t>
+  </si>
+  <si>
+    <t>HG=F</t>
+  </si>
+  <si>
+    <t>CL=F</t>
+  </si>
+  <si>
+    <t>BZ=F</t>
+  </si>
+  <si>
+    <t>NG=F</t>
+  </si>
+  <si>
+    <t>ZC=F</t>
+  </si>
+  <si>
+    <t>KE=F</t>
+  </si>
+  <si>
+    <t>ZR=F</t>
+  </si>
+  <si>
+    <t>ZS=F</t>
+  </si>
+  <si>
+    <t>GF=F</t>
+  </si>
+  <si>
+    <t>HE=F</t>
+  </si>
+  <si>
+    <t>LE=F</t>
+  </si>
+  <si>
+    <t>CC=F</t>
+  </si>
+  <si>
+    <t>KC=F</t>
+  </si>
+  <si>
+    <t>CT=F</t>
+  </si>
+  <si>
+    <t>LB=F</t>
+  </si>
+  <si>
+    <t>SB=F</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>Cocoa</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Brent Crude</t>
+  </si>
+  <si>
+    <t>WTI Crude Oil</t>
+  </si>
+  <si>
+    <t>KC Wheat</t>
+  </si>
+  <si>
+    <t>Rough Rice</t>
+  </si>
+  <si>
+    <t>Feeder Cattle</t>
+  </si>
+  <si>
+    <t>Live Cattle</t>
+  </si>
+  <si>
+    <t>PL=F</t>
+  </si>
+  <si>
+    <t>PA=F</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>ALI=F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom </t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>India 50</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>India Small-Cap</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Germany Small-Cap</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Eurozone</t>
+  </si>
+  <si>
+    <t>EAFE Value</t>
+  </si>
+  <si>
+    <t>EAFE Growth</t>
+  </si>
+  <si>
+    <t>EAFE</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>MSCI Min Vol EM</t>
+  </si>
+  <si>
+    <t>MSCI Min Vol EAFE</t>
+  </si>
+  <si>
+    <t>China Large-Cap</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK Small-Cap </t>
+  </si>
+  <si>
+    <t>EM Small-Cap</t>
+  </si>
+  <si>
+    <t>EM Asia</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russell 2000 </t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
@@ -1696,10 +1947,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2003,9 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2808,12 +3059,12 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +3080,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +3088,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +3096,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +3104,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +3112,7 @@
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,7 +3120,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +3128,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +3136,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +3144,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,7 +3152,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +3160,7 @@
         <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +3168,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +3176,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>129</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +3184,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +3192,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +3200,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +3208,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +3216,7 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +3224,7 @@
         <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +3232,7 @@
         <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3240,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +3248,7 @@
         <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,7 +3256,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3264,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +3272,7 @@
         <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +3280,7 @@
         <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3288,7 @@
         <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3296,7 @@
         <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3304,7 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3312,7 @@
         <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3320,7 @@
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3328,7 @@
         <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3336,7 @@
         <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3344,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3352,7 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3360,7 @@
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3368,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3376,7 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3384,7 @@
         <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3392,7 @@
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3400,7 @@
         <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3408,7 @@
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3424,7 @@
         <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3432,7 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3440,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3448,7 @@
         <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3456,7 @@
         <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3464,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3472,7 @@
         <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3480,7 @@
         <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3242,7 +3493,7 @@
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:A46"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,7 +3978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3933,13 +4184,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3959,7 +4210,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>620</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -3970,7 +4221,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -3981,7 +4232,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>615</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -3992,7 +4243,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>575</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -4003,7 +4254,7 @@
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -4014,7 +4265,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>579</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -4025,7 +4276,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>580</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -4036,7 +4287,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>581</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -4047,7 +4298,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>582</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -4058,7 +4309,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>583</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -4069,7 +4320,7 @@
         <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>622</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -4080,7 +4331,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>585</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -4091,7 +4342,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>129</v>
+        <v>586</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -4102,7 +4353,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>587</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -4113,7 +4364,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>576</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -4124,7 +4375,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>588</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -4135,7 +4386,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>589</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -4146,7 +4397,7 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>590</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -4157,7 +4408,7 @@
         <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>591</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -4168,7 +4419,7 @@
         <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>592</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -4179,7 +4430,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>593</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -4190,7 +4441,7 @@
         <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -4201,7 +4452,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>594</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -4212,7 +4463,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>595</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -4223,7 +4474,7 @@
         <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>596</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -4234,7 +4485,7 @@
         <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>597</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -4245,7 +4496,7 @@
         <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>598</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -4256,7 +4507,7 @@
         <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>599</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -4267,7 +4518,7 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>600</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -4278,7 +4529,7 @@
         <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -4289,7 +4540,7 @@
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>601</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -4300,7 +4551,7 @@
         <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>602</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -4311,7 +4562,7 @@
         <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>616</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -4322,7 +4573,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>617</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -4333,7 +4584,7 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>618</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
@@ -4344,7 +4595,7 @@
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>603</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
@@ -4355,7 +4606,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>604</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -4366,7 +4617,7 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>605</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -4377,7 +4628,7 @@
         <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>606</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
@@ -4388,7 +4639,7 @@
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -4399,7 +4650,7 @@
         <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
         <v>41</v>
@@ -4410,7 +4661,7 @@
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>608</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
@@ -4421,7 +4672,7 @@
         <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
@@ -4432,7 +4683,7 @@
         <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
@@ -4443,7 +4694,7 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
@@ -4454,7 +4705,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>619</v>
       </c>
       <c r="C47" t="s">
         <v>41</v>
@@ -4465,7 +4716,7 @@
         <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>577</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -4476,7 +4727,7 @@
         <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>611</v>
       </c>
       <c r="C49" t="s">
         <v>41</v>
@@ -4487,7 +4738,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>612</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -4498,7 +4749,7 @@
         <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
       <c r="C51" t="s">
         <v>41</v>
@@ -4509,7 +4760,7 @@
         <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>614</v>
       </c>
       <c r="C52" t="s">
         <v>41</v>
@@ -4524,7 +4775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -5962,12 +6213,262 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>553</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>558</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>571</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>572</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5982,257 +6483,806 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>134</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="str">
+        <f>VLOOKUP($D1,$A$1:$B$51,2,FALSE)</f>
+        <v>Germany Small-Cap</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E18" si="0">VLOOKUP($D2,$A$1:$B$51,2,FALSE)</f>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">UK Small-Cap </v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">United Kingdom </v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ireland</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Switzerland</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Belgium</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Austria</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Denmark</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Norway</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Finland</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Eurozone</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -6245,12 +7295,12 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6260,92 +7310,92 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6357,7 +7407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6371,67 +7423,67 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6443,7 +7495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6457,42 +7511,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -6504,7 +7558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6518,72 +7574,72 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +7651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6609,92 +7667,92 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -6706,9 +7764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
